--- a/projects/test_building/input/Scenario_Subsidy_BuildingRenovation.xlsx
+++ b/projects/test_building/input/Scenario_Subsidy_BuildingRenovation.xlsx
@@ -538,7 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU817"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F729" sqref="F729"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,8 +548,8 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -34792,82 +34794,82 @@
         <v>0</v>
       </c>
       <c r="V240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO240">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU240">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="241" spans="1:47" x14ac:dyDescent="0.25">
@@ -34935,82 +34937,82 @@
         <v>0</v>
       </c>
       <c r="V241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO241">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU241">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="242" spans="1:47" x14ac:dyDescent="0.25">
@@ -35078,82 +35080,82 @@
         <v>0</v>
       </c>
       <c r="V242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO242">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU242">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="243" spans="1:47" x14ac:dyDescent="0.25">
@@ -35221,82 +35223,82 @@
         <v>0</v>
       </c>
       <c r="V243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO243">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU243">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="244" spans="1:47" x14ac:dyDescent="0.25">
@@ -35364,82 +35366,82 @@
         <v>0</v>
       </c>
       <c r="V244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO244">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU244">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="245" spans="1:47" x14ac:dyDescent="0.25">
@@ -35507,82 +35509,82 @@
         <v>0</v>
       </c>
       <c r="V245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO245">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU245">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="246" spans="1:47" x14ac:dyDescent="0.25">
@@ -35650,82 +35652,82 @@
         <v>0</v>
       </c>
       <c r="V246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO246">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU246">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="247" spans="1:47" x14ac:dyDescent="0.25">
@@ -35793,82 +35795,82 @@
         <v>0</v>
       </c>
       <c r="V247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO247">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU247">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="248" spans="1:47" x14ac:dyDescent="0.25">
@@ -35936,82 +35938,82 @@
         <v>0</v>
       </c>
       <c r="V248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO248">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU248">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="249" spans="1:47" x14ac:dyDescent="0.25">
@@ -36079,82 +36081,82 @@
         <v>0</v>
       </c>
       <c r="V249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO249">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU249">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="250" spans="1:47" x14ac:dyDescent="0.25">
@@ -36222,82 +36224,82 @@
         <v>0</v>
       </c>
       <c r="V250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO250">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU250">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="251" spans="1:47" x14ac:dyDescent="0.25">
@@ -36365,82 +36367,82 @@
         <v>0</v>
       </c>
       <c r="V251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO251">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU251">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="252" spans="1:47" x14ac:dyDescent="0.25">
@@ -36508,82 +36510,82 @@
         <v>0</v>
       </c>
       <c r="V252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO252">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU252">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="253" spans="1:47" x14ac:dyDescent="0.25">
@@ -36651,82 +36653,82 @@
         <v>0</v>
       </c>
       <c r="V253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO253">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU253">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="254" spans="1:47" x14ac:dyDescent="0.25">
@@ -36794,82 +36796,82 @@
         <v>0</v>
       </c>
       <c r="V254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO254">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU254">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="255" spans="1:47" x14ac:dyDescent="0.25">
@@ -36937,82 +36939,82 @@
         <v>0</v>
       </c>
       <c r="V255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO255">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU255">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="256" spans="1:47" x14ac:dyDescent="0.25">
@@ -37080,82 +37082,82 @@
         <v>0</v>
       </c>
       <c r="V256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO256">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU256">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="257" spans="1:47" x14ac:dyDescent="0.25">
@@ -37223,82 +37225,82 @@
         <v>0</v>
       </c>
       <c r="V257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO257">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU257">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="258" spans="1:47" x14ac:dyDescent="0.25">
@@ -37366,82 +37368,82 @@
         <v>0</v>
       </c>
       <c r="V258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO258">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU258">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="259" spans="1:47" x14ac:dyDescent="0.25">
@@ -37509,82 +37511,82 @@
         <v>0</v>
       </c>
       <c r="V259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO259">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU259">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="260" spans="1:47" x14ac:dyDescent="0.25">
@@ -37652,82 +37654,82 @@
         <v>0</v>
       </c>
       <c r="V260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO260">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU260">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="261" spans="1:47" x14ac:dyDescent="0.25">
@@ -37795,82 +37797,82 @@
         <v>0</v>
       </c>
       <c r="V261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO261">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU261">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="262" spans="1:47" x14ac:dyDescent="0.25">
@@ -37938,82 +37940,82 @@
         <v>0</v>
       </c>
       <c r="V262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO262">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU262">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="263" spans="1:47" x14ac:dyDescent="0.25">
@@ -38081,82 +38083,82 @@
         <v>0</v>
       </c>
       <c r="V263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO263">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU263">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="264" spans="1:47" x14ac:dyDescent="0.25">
@@ -38224,82 +38226,82 @@
         <v>0</v>
       </c>
       <c r="V264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO264">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU264">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="265" spans="1:47" x14ac:dyDescent="0.25">
@@ -38367,82 +38369,82 @@
         <v>0</v>
       </c>
       <c r="V265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO265">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU265">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="266" spans="1:47" x14ac:dyDescent="0.25">
@@ -38510,82 +38512,82 @@
         <v>0</v>
       </c>
       <c r="V266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO266">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU266">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="267" spans="1:47" x14ac:dyDescent="0.25">
@@ -38653,82 +38655,82 @@
         <v>0</v>
       </c>
       <c r="V267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO267">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU267">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="268" spans="1:47" x14ac:dyDescent="0.25">
@@ -38796,82 +38798,82 @@
         <v>0</v>
       </c>
       <c r="V268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO268">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU268">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="269" spans="1:47" x14ac:dyDescent="0.25">
@@ -38939,82 +38941,82 @@
         <v>0</v>
       </c>
       <c r="V269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO269">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU269">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="270" spans="1:47" x14ac:dyDescent="0.25">
@@ -39082,82 +39084,82 @@
         <v>0</v>
       </c>
       <c r="V270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO270">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU270">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="271" spans="1:47" x14ac:dyDescent="0.25">
@@ -39225,82 +39227,82 @@
         <v>0</v>
       </c>
       <c r="V271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO271">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU271">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="272" spans="1:47" x14ac:dyDescent="0.25">
@@ -39368,82 +39370,82 @@
         <v>0</v>
       </c>
       <c r="V272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO272">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU272">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="273" spans="1:47" x14ac:dyDescent="0.25">
@@ -39511,82 +39513,82 @@
         <v>0</v>
       </c>
       <c r="V273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Z273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AA273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AC273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AD273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AE273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AF273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AG273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AI273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AJ273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AK273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AL273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AM273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AN273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AO273">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AP273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AQ273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AR273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AS273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AT273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="AU273">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="274" spans="1:47" x14ac:dyDescent="0.25">
@@ -39684,52 +39686,52 @@
         <v>0.5</v>
       </c>
       <c r="AF274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO274">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU274">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="275" spans="1:47" x14ac:dyDescent="0.25">
@@ -39827,52 +39829,52 @@
         <v>0.5</v>
       </c>
       <c r="AF275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO275">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="276" spans="1:47" x14ac:dyDescent="0.25">
@@ -39970,52 +39972,52 @@
         <v>0.5</v>
       </c>
       <c r="AF276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO276">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU276">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277" spans="1:47" x14ac:dyDescent="0.25">
@@ -40113,52 +40115,52 @@
         <v>0.5</v>
       </c>
       <c r="AF277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO277">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="278" spans="1:47" x14ac:dyDescent="0.25">
@@ -40256,52 +40258,52 @@
         <v>0.5</v>
       </c>
       <c r="AF278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO278">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU278">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="279" spans="1:47" x14ac:dyDescent="0.25">
@@ -40399,52 +40401,52 @@
         <v>0.5</v>
       </c>
       <c r="AF279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO279">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="280" spans="1:47" x14ac:dyDescent="0.25">
@@ -40542,52 +40544,52 @@
         <v>0.5</v>
       </c>
       <c r="AF280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO280">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU280">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="281" spans="1:47" x14ac:dyDescent="0.25">
@@ -40685,52 +40687,52 @@
         <v>0.5</v>
       </c>
       <c r="AF281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO281">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU281">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="282" spans="1:47" x14ac:dyDescent="0.25">
@@ -40828,52 +40830,52 @@
         <v>0.5</v>
       </c>
       <c r="AF282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO282">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU282">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="283" spans="1:47" x14ac:dyDescent="0.25">
@@ -40971,52 +40973,52 @@
         <v>0.5</v>
       </c>
       <c r="AF283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO283">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU283">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284" spans="1:47" x14ac:dyDescent="0.25">
@@ -41114,52 +41116,52 @@
         <v>0.5</v>
       </c>
       <c r="AF284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO284">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="285" spans="1:47" x14ac:dyDescent="0.25">
@@ -41257,52 +41259,52 @@
         <v>0.5</v>
       </c>
       <c r="AF285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO285">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU285">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="286" spans="1:47" x14ac:dyDescent="0.25">
@@ -41400,52 +41402,52 @@
         <v>0.5</v>
       </c>
       <c r="AF286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO286">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="1:47" x14ac:dyDescent="0.25">
@@ -41543,52 +41545,52 @@
         <v>0.5</v>
       </c>
       <c r="AF287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO287">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="288" spans="1:47" x14ac:dyDescent="0.25">
@@ -41686,52 +41688,52 @@
         <v>0.5</v>
       </c>
       <c r="AF288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO288">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU288">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="289" spans="1:47" x14ac:dyDescent="0.25">
@@ -41829,52 +41831,52 @@
         <v>0.5</v>
       </c>
       <c r="AF289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO289">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU289">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="290" spans="1:47" x14ac:dyDescent="0.25">
@@ -41972,52 +41974,52 @@
         <v>0.5</v>
       </c>
       <c r="AF290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO290">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU290">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="291" spans="1:47" x14ac:dyDescent="0.25">
@@ -42115,52 +42117,52 @@
         <v>0.5</v>
       </c>
       <c r="AF291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO291">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU291">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="292" spans="1:47" x14ac:dyDescent="0.25">
@@ -42258,52 +42260,52 @@
         <v>0.5</v>
       </c>
       <c r="AF292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO292">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU292">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="293" spans="1:47" x14ac:dyDescent="0.25">
@@ -42401,52 +42403,52 @@
         <v>0.5</v>
       </c>
       <c r="AF293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO293">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU293">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="294" spans="1:47" x14ac:dyDescent="0.25">
@@ -42544,52 +42546,52 @@
         <v>0.5</v>
       </c>
       <c r="AF294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO294">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU294">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="295" spans="1:47" x14ac:dyDescent="0.25">
@@ -42687,52 +42689,52 @@
         <v>0.5</v>
       </c>
       <c r="AF295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO295">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU295">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="296" spans="1:47" x14ac:dyDescent="0.25">
@@ -42830,52 +42832,52 @@
         <v>0.5</v>
       </c>
       <c r="AF296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU296">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="297" spans="1:47" x14ac:dyDescent="0.25">
@@ -42973,52 +42975,52 @@
         <v>0.5</v>
       </c>
       <c r="AF297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO297">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU297">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="298" spans="1:47" x14ac:dyDescent="0.25">
@@ -43116,52 +43118,52 @@
         <v>0.5</v>
       </c>
       <c r="AF298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO298">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU298">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="299" spans="1:47" x14ac:dyDescent="0.25">
@@ -43259,52 +43261,52 @@
         <v>0.5</v>
       </c>
       <c r="AF299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU299">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="300" spans="1:47" x14ac:dyDescent="0.25">
@@ -43402,52 +43404,52 @@
         <v>0.5</v>
       </c>
       <c r="AF300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU300">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="301" spans="1:47" x14ac:dyDescent="0.25">
@@ -43545,52 +43547,52 @@
         <v>0.5</v>
       </c>
       <c r="AF301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU301">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="302" spans="1:47" x14ac:dyDescent="0.25">
@@ -43688,52 +43690,52 @@
         <v>0.5</v>
       </c>
       <c r="AF302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU302">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="303" spans="1:47" x14ac:dyDescent="0.25">
@@ -43831,52 +43833,52 @@
         <v>0.5</v>
       </c>
       <c r="AF303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU303">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="304" spans="1:47" x14ac:dyDescent="0.25">
@@ -43974,52 +43976,52 @@
         <v>0.5</v>
       </c>
       <c r="AF304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO304">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU304">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="305" spans="1:47" x14ac:dyDescent="0.25">
@@ -44117,52 +44119,52 @@
         <v>0.5</v>
       </c>
       <c r="AF305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO305">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU305">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="306" spans="1:47" x14ac:dyDescent="0.25">
@@ -44260,52 +44262,52 @@
         <v>0.5</v>
       </c>
       <c r="AF306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO306">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU306">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="307" spans="1:47" x14ac:dyDescent="0.25">
@@ -44403,52 +44405,52 @@
         <v>0.5</v>
       </c>
       <c r="AF307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AG307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AH307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AM307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO307">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU307">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="308" spans="1:47" x14ac:dyDescent="0.25">
@@ -44546,52 +44548,52 @@
         <v>0.25</v>
       </c>
       <c r="AF308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO308">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU308">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:47" x14ac:dyDescent="0.25">
@@ -44689,52 +44691,52 @@
         <v>0.25</v>
       </c>
       <c r="AF309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO309">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:47" x14ac:dyDescent="0.25">
@@ -44832,52 +44834,52 @@
         <v>0.25</v>
       </c>
       <c r="AF310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO310">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU310">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:47" x14ac:dyDescent="0.25">
@@ -44975,52 +44977,52 @@
         <v>0.25</v>
       </c>
       <c r="AF311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO311">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU311">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:47" x14ac:dyDescent="0.25">
@@ -45118,52 +45120,52 @@
         <v>0.25</v>
       </c>
       <c r="AF312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO312">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:47" x14ac:dyDescent="0.25">
@@ -45261,52 +45263,52 @@
         <v>0.25</v>
       </c>
       <c r="AF313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO313">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU313">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:47" x14ac:dyDescent="0.25">
@@ -45404,52 +45406,52 @@
         <v>0.25</v>
       </c>
       <c r="AF314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO314">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU314">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:47" x14ac:dyDescent="0.25">
@@ -45547,52 +45549,52 @@
         <v>0.25</v>
       </c>
       <c r="AF315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO315">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU315">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:47" x14ac:dyDescent="0.25">
@@ -45690,52 +45692,52 @@
         <v>0.25</v>
       </c>
       <c r="AF316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO316">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU316">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:47" x14ac:dyDescent="0.25">
@@ -45833,52 +45835,52 @@
         <v>0.25</v>
       </c>
       <c r="AF317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO317">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU317">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:47" x14ac:dyDescent="0.25">
@@ -45976,52 +45978,52 @@
         <v>0.25</v>
       </c>
       <c r="AF318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO318">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:47" x14ac:dyDescent="0.25">
@@ -46119,52 +46121,52 @@
         <v>0.25</v>
       </c>
       <c r="AF319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO319">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:47" x14ac:dyDescent="0.25">
@@ -46262,52 +46264,52 @@
         <v>0.25</v>
       </c>
       <c r="AF320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO320">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:47" x14ac:dyDescent="0.25">
@@ -46405,52 +46407,52 @@
         <v>0.25</v>
       </c>
       <c r="AF321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO321">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU321">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:47" x14ac:dyDescent="0.25">
@@ -46548,52 +46550,52 @@
         <v>0.25</v>
       </c>
       <c r="AF322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO322">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU322">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:47" x14ac:dyDescent="0.25">
@@ -46691,52 +46693,52 @@
         <v>0.25</v>
       </c>
       <c r="AF323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU323">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:47" x14ac:dyDescent="0.25">
@@ -46834,52 +46836,52 @@
         <v>0.25</v>
       </c>
       <c r="AF324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO324">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU324">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:47" x14ac:dyDescent="0.25">
@@ -46977,52 +46979,52 @@
         <v>0.25</v>
       </c>
       <c r="AF325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO325">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:47" x14ac:dyDescent="0.25">
@@ -47120,52 +47122,52 @@
         <v>0.25</v>
       </c>
       <c r="AF326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO326">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU326">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:47" x14ac:dyDescent="0.25">
@@ -47263,52 +47265,52 @@
         <v>0.25</v>
       </c>
       <c r="AF327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO327">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU327">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:47" x14ac:dyDescent="0.25">
@@ -47406,52 +47408,52 @@
         <v>0.25</v>
       </c>
       <c r="AF328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO328">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU328">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:47" x14ac:dyDescent="0.25">
@@ -47549,52 +47551,52 @@
         <v>0.25</v>
       </c>
       <c r="AF329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO329">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU329">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:47" x14ac:dyDescent="0.25">
@@ -47692,52 +47694,52 @@
         <v>0.25</v>
       </c>
       <c r="AF330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO330">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU330">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:47" x14ac:dyDescent="0.25">
@@ -47835,52 +47837,52 @@
         <v>0.25</v>
       </c>
       <c r="AF331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO331">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU331">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:47" x14ac:dyDescent="0.25">
@@ -47978,52 +47980,52 @@
         <v>0.25</v>
       </c>
       <c r="AF332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO332">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU332">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:47" x14ac:dyDescent="0.25">
@@ -48121,52 +48123,52 @@
         <v>0.25</v>
       </c>
       <c r="AF333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO333">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU333">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:47" x14ac:dyDescent="0.25">
@@ -48264,52 +48266,52 @@
         <v>0.25</v>
       </c>
       <c r="AF334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO334">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:47" x14ac:dyDescent="0.25">
@@ -48407,52 +48409,52 @@
         <v>0.25</v>
       </c>
       <c r="AF335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO335">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:47" x14ac:dyDescent="0.25">
@@ -48550,52 +48552,52 @@
         <v>0.25</v>
       </c>
       <c r="AF336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO336">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU336">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:47" x14ac:dyDescent="0.25">
@@ -48693,52 +48695,52 @@
         <v>0.25</v>
       </c>
       <c r="AF337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO337">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU337">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:47" x14ac:dyDescent="0.25">
@@ -48836,52 +48838,52 @@
         <v>0.25</v>
       </c>
       <c r="AF338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO338">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU338">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:47" x14ac:dyDescent="0.25">
@@ -48979,52 +48981,52 @@
         <v>0.25</v>
       </c>
       <c r="AF339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO339">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU339">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:47" x14ac:dyDescent="0.25">
@@ -49122,52 +49124,52 @@
         <v>0.25</v>
       </c>
       <c r="AF340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO340">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:47" x14ac:dyDescent="0.25">
@@ -49265,52 +49267,52 @@
         <v>0.25</v>
       </c>
       <c r="AF341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AG341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AI341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AJ341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AK341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AM341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AN341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AO341">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AP341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:47" x14ac:dyDescent="0.25">
